--- a/workbooks/saída/1280 ELERCI DE SOUZA VIEIRA/04_Formulario-MicroGD_Rev_i_ELERCI DE SOUZA VIEIRA.xlsx
+++ b/workbooks/saída/1280 ELERCI DE SOUZA VIEIRA/04_Formulario-MicroGD_Rev_i_ELERCI DE SOUZA VIEIRA.xlsx
@@ -7496,7 +7496,7 @@
       <c r="B167" s="35" t="n"/>
       <c r="C167" s="203" t="inlineStr">
         <is>
-          <t>PIEDADE DOS GERAIS, 15/03/2023</t>
+          <t>PIEDADE DOS GERAIS, 16/03/2023</t>
         </is>
       </c>
       <c r="D167" s="201" t="n"/>
